--- a/algorithmsParameters.xlsx
+++ b/algorithmsParameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flopes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flopes\Documents\GitHub\2026_bracis_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,18 +77,12 @@
     <t>Lasso Regression</t>
   </si>
   <si>
-    <t>α ∈ {0.01, 0.1, 1}</t>
-  </si>
-  <si>
     <t>ElasticNet</t>
   </si>
   <si>
     <t>Elastic Net Regression</t>
   </si>
   <si>
-    <t>α ∈ {0.01, 0.1, 1}; l1_ratio ∈ {0.1, 0.5, 0.9}</t>
-  </si>
-  <si>
     <t>KNN</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>n_layers ∈ {1, 2, 3}; units ∈ {64,…,512}; activation ∈ {relu, tanh, swish, gelu}; L2 ∈ {0, 1e−4, 1e−3}; batch_norm ∈ {True, False}; dropout ∈ [0.0, 0.5]; optimizer ∈ {Adam, RMSprop}; learning_rate ∈ {1e−2, 5e−3, 1e−3, 5e−4, 1e−4}</t>
+  </si>
+  <si>
+    <t>α ∈ {0.01, 0.1, 1}; max_iter=5000</t>
+  </si>
+  <si>
+    <t>α ∈ {0.01, 0.1, 1}; l1_ratio ∈ {0.1, 0.5, 0.9}; max_iter=5000</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -548,73 +548,73 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
